--- a/homologacion_results/matched_clorox_cleaned.xlsx
+++ b/homologacion_results/matched_clorox_cleaned.xlsx
@@ -14,89 +14,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
   <si>
     <t>CODIGODISTRIBUIDOR</t>
   </si>
   <si>
-    <t>CODIGOPRODUCTODISTRIBUIDOR</t>
-  </si>
-  <si>
     <t>NOMBREPRODUCTODISTRIBUIDOR</t>
   </si>
   <si>
-    <t>PROVEEDOR</t>
-  </si>
-  <si>
-    <t>Clean Name</t>
-  </si>
-  <si>
-    <t>Extracted_Sizes</t>
-  </si>
-  <si>
-    <t>Normalized_Category</t>
-  </si>
-  <si>
     <t>Matched Name</t>
   </si>
   <si>
     <t>Match Score</t>
   </si>
   <si>
+    <t>Exist in the Product Master?</t>
+  </si>
+  <si>
     <t>Match Confidence</t>
   </si>
   <si>
+    <t>Size Match</t>
+  </si>
+  <si>
+    <t>Category Match</t>
+  </si>
+  <si>
+    <t>Brand Match</t>
+  </si>
+  <si>
     <t>System Observation</t>
   </si>
   <si>
-    <t>Exist in the Product Master?</t>
-  </si>
-  <si>
-    <t>Size Match</t>
-  </si>
-  <si>
-    <t>Category Match</t>
-  </si>
-  <si>
-    <t>Brand Match</t>
-  </si>
-  <si>
-    <t>028895</t>
-  </si>
-  <si>
-    <t>CLO066332</t>
-  </si>
-  <si>
-    <t>510297</t>
-  </si>
-  <si>
-    <t>63795</t>
-  </si>
-  <si>
-    <t>63795B</t>
-  </si>
-  <si>
-    <t>957733</t>
-  </si>
-  <si>
-    <t>CLO066578</t>
-  </si>
-  <si>
-    <t>B06534</t>
-  </si>
-  <si>
-    <t>07564</t>
-  </si>
-  <si>
-    <t>005945</t>
-  </si>
-  <si>
-    <t>028892</t>
-  </si>
-  <si>
-    <t>028893</t>
-  </si>
-  <si>
     <t>POETT MUSICA PRMAVERAL*4.5LT</t>
   </si>
   <si>
@@ -133,69 +82,6 @@
     <t>LEJ.CLOROX TRIP.ACCION TRAD. (CJAx3) 1x4000GR</t>
   </si>
   <si>
-    <t>CLOROX</t>
-  </si>
-  <si>
-    <t>poett musica prmaveral</t>
-  </si>
-  <si>
-    <t>desinfectante poett solo para ti</t>
-  </si>
-  <si>
-    <t>limpiador poett bebe und bot</t>
-  </si>
-  <si>
-    <t>lejia clorox t acc  trad bot 3x</t>
-  </si>
-  <si>
-    <t>poett maxigalon frescura lavanda</t>
-  </si>
-  <si>
-    <t>desinf  poett primavera</t>
-  </si>
-  <si>
-    <t>poet bebe    por  poe 880</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>clorox 860</t>
-  </si>
-  <si>
-    <t>poett flores de primavera</t>
-  </si>
-  <si>
-    <t>poett bebe</t>
-  </si>
-  <si>
-    <t>lej clorox trip accion trad  1x</t>
-  </si>
-  <si>
-    <t>['4.5lt']</t>
-  </si>
-  <si>
-    <t>['880ml']</t>
-  </si>
-  <si>
-    <t>['4000gr']</t>
-  </si>
-  <si>
-    <t>['880ml', '5pqt']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>limpiadores heavy du</t>
-  </si>
-  <si>
-    <t>lejias maquila</t>
-  </si>
-  <si>
-    <t>lejias</t>
-  </si>
-  <si>
     <t>mar in  primavera multiuso</t>
   </si>
   <si>
@@ -229,13 +115,13 @@
     <t>det pat bebe</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>NO MATCH</t>
   </si>
   <si>
     <t>❌ Size mismatch. No homologation allowed.</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -593,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,651 +516,450 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>14006577</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>55.31914893617022</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2">
-        <v>55.31914893617022</v>
+        <v>34</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>14001197</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>73.01587301587303</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3">
-        <v>73.01587301587303</v>
+        <v>34</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>11001791.3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>62.74509803921568</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4">
-        <v>62.74509803921568</v>
+        <v>34</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>14005952</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>58.33333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5">
-        <v>58.33333333333333</v>
+        <v>34</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>14006766</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>55.31914893617022</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6">
-        <v>55.31914893617022</v>
+        <v>34</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>14005952</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>58.33333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7">
-        <v>58.33333333333333</v>
+        <v>34</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>11000273</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>58.62068965517242</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8">
-        <v>58.62068965517242</v>
+        <v>34</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>14001197</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>62.22222222222222</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9">
-        <v>62.22222222222222</v>
+        <v>34</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>11002101</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>61.90476190476191</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10">
-        <v>61.90476190476191</v>
+        <v>34</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>11001846</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11002670</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>45.71428571428572</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12">
-        <v>45.71428571428572</v>
+        <v>34</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>14006766</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>59.57446808510638</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13">
-        <v>59.57446808510638</v>
+        <v>34</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>14006766</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>72.72727272727273</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14">
-        <v>72.72727272727273</v>
+        <v>34</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>11000310</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>62.5</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15">
-        <v>62.5</v>
+        <v>34</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" t="b">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/homologacion_results/matched_clorox_cleaned.xlsx
+++ b/homologacion_results/matched_clorox_cleaned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="36">
   <si>
     <t>CODIGODISTRIBUIDOR</t>
   </si>
@@ -479,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,16 +615,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>14005952</v>
+        <v>11001791.3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>58.33333333333333</v>
+        <v>62.74509803921568</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -647,16 +647,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>14006766</v>
+        <v>11001791.3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>55.31914893617022</v>
+        <v>62.74509803921568</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>35</v>
@@ -679,16 +679,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>14005952</v>
+        <v>11001791.3</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>58.33333333333333</v>
+        <v>62.74509803921568</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -711,16 +711,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>11000273</v>
+        <v>11001791.3</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>58.62068965517242</v>
+        <v>62.74509803921568</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -743,16 +743,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>14001197</v>
+        <v>11001791.3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>62.22222222222222</v>
+        <v>62.74509803921568</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>35</v>
@@ -775,16 +775,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>11002101</v>
+        <v>11001791.3</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>61.90476190476191</v>
+        <v>62.74509803921568</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
@@ -807,13 +807,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>11001846</v>
+        <v>11001791.3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>62.74509803921568</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -836,16 +839,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>11002670</v>
+        <v>11001791.3</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>45.71428571428572</v>
+        <v>62.74509803921568</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -868,16 +871,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>14006766</v>
+        <v>14005952</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>59.57446808510638</v>
+        <v>58.33333333333333</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
@@ -900,16 +903,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>14006766</v>
+        <v>14005952</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>72.72727272727273</v>
+        <v>58.33333333333333</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -932,33 +935,606 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>11000310</v>
+        <v>14005952</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15">
+        <v>58.33333333333333</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>14006766</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>55.31914893617022</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>14005952</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>58.33333333333333</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>14005952</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>58.33333333333333</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>14005952</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>58.33333333333333</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>11000273</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>58.62068965517242</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>14001197</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>62.22222222222222</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>11002101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>61.90476190476191</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>11001846</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>11002670</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>45.71428571428572</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>14006766</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>59.57446808510638</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>14006766</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>59.57446808510638</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>14006766</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>72.72727272727273</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>14006766</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>72.72727272727273</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>14006766</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>72.72727272727273</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>14006766</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>72.72727272727273</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>11000310</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31">
         <v>62.5</v>
       </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="b">
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
         <v>1</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>11000310</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>62.5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>11000310</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>62.5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
         <v>35</v>
       </c>
     </row>
